--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.6メッセージ管理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.6メッセージ管理方式.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F620FA84-17E5-426D-8793-C572D817C99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="19395" windowHeight="6810"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ管理方式" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">メッセージ管理方式!$A$1:$AI$45</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">メッセージ管理方式!$A$1:$AI$45</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">メッセージ管理方式!$A$1:$AI$45</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">メッセージ管理方式!$A$1:$AI$45</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">メッセージ管理方式!$A$1:$AI$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">メッセージ管理方式!$A$1:$AI$49</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">メッセージ管理方式!$A$1:$AI$49</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">メッセージ管理方式!$A$1:$AI$49</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">メッセージ管理方式!$A$1:$AI$49</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">メッセージ管理方式!$A$1:$AI$49</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -118,16 +130,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>メッセージ管理の詳細</t>
-    <rPh sb="5" eb="7">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メッセージのロードの概要</t>
     <rPh sb="10" eb="12">
       <t>ガイヨウ</t>
@@ -151,10 +153,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メッセージの入れ替えは、SEメンテナンスにより行うため、メンテナンス用の画面は提供しない。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>対象</t>
     <rPh sb="0" eb="2">
       <t>タイショウ</t>
@@ -214,17 +212,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>同期設定がされているならば、その1つを更新すればよいため。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本システムでは、複数のDBサーバを使用しているが、データベースにメッセージを保存する場合は、</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>バッチ機能では、特定のメッセージのみを繰り返し使用する。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -261,16 +248,134 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>本システムでの選択基準を以下に示す。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>要件定義</t>
     <rPh sb="0" eb="2">
       <t>ヨウケン</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロパティファイル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特徴</t>
+    <rPh sb="0" eb="2">
+      <t>トクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データベーステーブルにメッセージIDとメッセージの組み合わせを登録して管理する。</t>
+    <rPh sb="25" eb="26">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでの方針</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下の理由により、メッセージの定義場所にはプロパティファイルを採用する。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストファイルなので、変更履歴の管理がしやすい</t>
+    <rPh sb="12" eb="16">
+      <t>ヘンコウリレキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Javaのプロパティファイルでメッセージを定義し、リソースとしてアプリケーション内部に</t>
+    <rPh sb="21" eb="23">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>組み込んで使用する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchのメッセージ管理機能では、メッセージの定義場所として以下の選択肢が存在する。</t>
+    <rPh sb="14" eb="18">
+      <t>カンリキノウ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>テイギバショ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストファイルなので、メッセージの追加や削除・変更がデータベース管理よりも容易に行える</t>
+    <rPh sb="18" eb="20">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -278,7 +383,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -494,7 +599,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -683,13 +788,22 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -697,12 +811,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -744,7 +861,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -777,9 +894,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -812,6 +946,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -987,11 +1138,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI459"/>
+  <dimension ref="A1:AI463"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1025,7 +1176,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="47" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="S1" s="48"/>
       <c r="T1" s="48"/>
@@ -1176,35 +1327,35 @@
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O15" s="25"/>
     </row>
@@ -1227,7 +1378,7 @@
     </row>
     <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F19" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1240,7 +1391,7 @@
       <c r="J20" s="17"/>
       <c r="K20" s="18"/>
       <c r="L20" s="17" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
@@ -1266,39 +1417,39 @@
       <c r="AH20" s="18"/>
     </row>
     <row r="21" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F21" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="27"/>
-      <c r="AH21" s="28"/>
+      <c r="F21" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="64"/>
+      <c r="W21" s="64"/>
+      <c r="X21" s="64"/>
+      <c r="Y21" s="64"/>
+      <c r="Z21" s="64"/>
+      <c r="AA21" s="64"/>
+      <c r="AB21" s="64"/>
+      <c r="AC21" s="64"/>
+      <c r="AD21" s="64"/>
+      <c r="AE21" s="64"/>
+      <c r="AF21" s="64"/>
+      <c r="AG21" s="64"/>
+      <c r="AH21" s="65"/>
     </row>
     <row r="22" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F22" s="26"/>
@@ -1308,7 +1459,7 @@
       <c r="J22" s="27"/>
       <c r="K22" s="28"/>
       <c r="L22" s="27" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
@@ -1333,7 +1484,7 @@
       <c r="AG22" s="27"/>
       <c r="AH22" s="28"/>
     </row>
-    <row r="23" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F23" s="29"/>
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
@@ -1364,271 +1515,221 @@
       <c r="AG23" s="30"/>
       <c r="AH23" s="31"/>
     </row>
-    <row r="24" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="15"/>
-      <c r="E25" s="15" t="str">
+    <row r="24" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F24" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="27"/>
+      <c r="AH24" s="28"/>
+    </row>
+    <row r="25" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="30"/>
+      <c r="AG25" s="30"/>
+      <c r="AH25" s="31"/>
+    </row>
+    <row r="26" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D27" s="15"/>
+      <c r="E27" s="15" t="str">
         <f>$D$9&amp;"3."</f>
         <v>7.6.1.3.</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
+      <c r="F28" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="29" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="15" t="str">
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D33" s="15" t="str">
         <f>$C$7&amp;"2."</f>
         <v>7.6.2.</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D30" s="15"/>
-      <c r="E30" s="24" t="str">
-        <f>$D$29&amp;"1."</f>
+    <row r="34" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D34" s="15"/>
+      <c r="E34" s="24" t="str">
+        <f>$D$33&amp;"1."</f>
         <v>7.6.2.1.</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F34" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="15"/>
+      <c r="F35" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D31" s="15"/>
-      <c r="F31" s="4" t="s">
+    <row r="36" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D36" s="15"/>
+      <c r="F36" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E38" s="15" t="str">
+        <f>$D$33&amp;"2."</f>
+        <v>7.6.2.2.</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F40" s="16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D32" s="15"/>
-      <c r="F32" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D33" s="15"/>
-    </row>
-    <row r="34" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E34" s="15" t="str">
-        <f>$D$29&amp;"2."</f>
-        <v>7.6.2.2.</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F36" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="16" t="s">
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="17"/>
+      <c r="AB40" s="17"/>
+      <c r="AC40" s="17"/>
+      <c r="AD40" s="17"/>
+      <c r="AE40" s="17"/>
+      <c r="AF40" s="17"/>
+      <c r="AG40" s="17"/>
+      <c r="AH40" s="18"/>
+    </row>
+    <row r="41" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F41" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="17"/>
-      <c r="AA36" s="17"/>
-      <c r="AB36" s="17"/>
-      <c r="AC36" s="17"/>
-      <c r="AD36" s="17"/>
-      <c r="AE36" s="17"/>
-      <c r="AF36" s="17"/>
-      <c r="AG36" s="17"/>
-      <c r="AH36" s="18"/>
-    </row>
-    <row r="37" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F37" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="27"/>
-      <c r="W37" s="27"/>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="27"/>
-      <c r="AC37" s="27"/>
-      <c r="AD37" s="27"/>
-      <c r="AE37" s="27"/>
-      <c r="AF37" s="27"/>
-      <c r="AG37" s="27"/>
-      <c r="AH37" s="28"/>
-    </row>
-    <row r="38" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F38" s="19"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="27"/>
-      <c r="W38" s="27"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="27"/>
-      <c r="AD38" s="27"/>
-      <c r="AE38" s="27"/>
-      <c r="AF38" s="27"/>
-      <c r="AG38" s="27"/>
-      <c r="AH38" s="28"/>
-    </row>
-    <row r="39" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F39" s="19"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="27"/>
-      <c r="AD39" s="27"/>
-      <c r="AE39" s="27"/>
-      <c r="AF39" s="27"/>
-      <c r="AG39" s="27"/>
-      <c r="AH39" s="28"/>
-    </row>
-    <row r="40" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F40" s="21"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="30"/>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="30"/>
-      <c r="Z40" s="30"/>
-      <c r="AA40" s="30"/>
-      <c r="AB40" s="30"/>
-      <c r="AC40" s="30"/>
-      <c r="AD40" s="30"/>
-      <c r="AE40" s="30"/>
-      <c r="AF40" s="30"/>
-      <c r="AG40" s="30"/>
-      <c r="AH40" s="31"/>
-    </row>
-    <row r="41" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F41" s="23" t="s">
-        <v>27</v>
       </c>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
       <c r="K41" s="32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L41" s="33"/>
       <c r="M41" s="33"/>
       <c r="N41" s="33"/>
       <c r="O41" s="34"/>
       <c r="P41" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q41" s="27"/>
       <c r="R41" s="27"/>
@@ -1650,7 +1751,7 @@
       <c r="AH41" s="28"/>
     </row>
     <row r="42" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F42" s="23"/>
+      <c r="F42" s="19"/>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
@@ -1661,7 +1762,7 @@
       <c r="N42" s="36"/>
       <c r="O42" s="37"/>
       <c r="P42" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q42" s="27"/>
       <c r="R42" s="27"/>
@@ -1683,7 +1784,7 @@
       <c r="AH42" s="28"/>
     </row>
     <row r="43" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F43" s="23"/>
+      <c r="F43" s="19"/>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
@@ -1694,7 +1795,7 @@
       <c r="N43" s="36"/>
       <c r="O43" s="37"/>
       <c r="P43" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q43" s="27"/>
       <c r="R43" s="27"/>
@@ -1726,7 +1827,9 @@
       <c r="M44" s="39"/>
       <c r="N44" s="39"/>
       <c r="O44" s="40"/>
-      <c r="P44" s="30"/>
+      <c r="P44" s="30" t="s">
+        <v>38</v>
+      </c>
       <c r="Q44" s="30"/>
       <c r="R44" s="30"/>
       <c r="S44" s="30"/>
@@ -1746,28 +1849,158 @@
       <c r="AG44" s="30"/>
       <c r="AH44" s="31"/>
     </row>
-    <row r="45" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D45" s="15"/>
-    </row>
-    <row r="46" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F45" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="27"/>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="27"/>
+      <c r="Z45" s="27"/>
+      <c r="AA45" s="27"/>
+      <c r="AB45" s="27"/>
+      <c r="AC45" s="27"/>
+      <c r="AD45" s="27"/>
+      <c r="AE45" s="27"/>
+      <c r="AF45" s="27"/>
+      <c r="AG45" s="27"/>
+      <c r="AH45" s="28"/>
+    </row>
+    <row r="46" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F46" s="23"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="27"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="27"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="27"/>
+      <c r="Z46" s="27"/>
+      <c r="AA46" s="27"/>
+      <c r="AB46" s="27"/>
+      <c r="AC46" s="27"/>
+      <c r="AD46" s="27"/>
+      <c r="AE46" s="27"/>
+      <c r="AF46" s="27"/>
+      <c r="AG46" s="27"/>
+      <c r="AH46" s="28"/>
+    </row>
+    <row r="47" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F47" s="23"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="27"/>
+      <c r="U47" s="27"/>
+      <c r="V47" s="27"/>
+      <c r="W47" s="27"/>
+      <c r="X47" s="27"/>
+      <c r="Y47" s="27"/>
+      <c r="Z47" s="27"/>
+      <c r="AA47" s="27"/>
+      <c r="AB47" s="27"/>
+      <c r="AC47" s="27"/>
+      <c r="AD47" s="27"/>
+      <c r="AE47" s="27"/>
+      <c r="AF47" s="27"/>
+      <c r="AG47" s="27"/>
+      <c r="AH47" s="28"/>
+    </row>
+    <row r="48" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F48" s="21"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="30"/>
+      <c r="U48" s="30"/>
+      <c r="V48" s="30"/>
+      <c r="W48" s="30"/>
+      <c r="X48" s="30"/>
+      <c r="Y48" s="30"/>
+      <c r="Z48" s="30"/>
+      <c r="AA48" s="30"/>
+      <c r="AB48" s="30"/>
+      <c r="AC48" s="30"/>
+      <c r="AD48" s="30"/>
+      <c r="AE48" s="30"/>
+      <c r="AF48" s="30"/>
+      <c r="AG48" s="30"/>
+      <c r="AH48" s="31"/>
+    </row>
+    <row r="49" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D49" s="15"/>
+    </row>
+    <row r="50" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="65" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="66" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2163,10 +2396,14 @@
     <row r="457" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="458" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="459" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="K37:O40"/>
     <mergeCell ref="K41:O44"/>
+    <mergeCell ref="K45:O48"/>
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="R1:X1"/>
@@ -2181,11 +2418,14 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K37:O44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K41:O48" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>OFFSET(#REF!,MATCH(0,INDEX(0/(#REF!&lt;&gt;""),),0)-1,,COUNTA(#REF!),)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="32" max="34" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.6メッセージ管理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.6メッセージ管理方式.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F620FA84-17E5-426D-8793-C572D817C99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09FE352-3C92-4453-AAC3-BEA524118AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="メッセージ管理方式" sheetId="1" r:id="rId1"/>
+    <sheet name="7.6.メッセージ管理方式" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">メッセージ管理方式!$A$1:$AI$49</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">メッセージ管理方式!$A$1:$AI$49</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">メッセージ管理方式!$A$1:$AI$49</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">メッセージ管理方式!$A$1:$AI$49</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">メッセージ管理方式!$A$1:$AI$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.6.メッセージ管理方式'!$A$1:$AI$49</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.6.メッセージ管理方式'!$A$1:$AI$49</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.6.メッセージ管理方式'!$A$1:$AI$49</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.6.メッセージ管理方式'!$A$1:$AI$49</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.6.メッセージ管理方式'!$A$1:$AI$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -696,6 +696,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -788,15 +797,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1160,43 +1160,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="49"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="49"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="52"/>
       <c r="Y1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="43"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="46"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -1205,43 +1205,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="58"/>
       <c r="P2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="56" t="s">
+      <c r="R2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="58"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="61"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="43"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="46"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1250,39 +1250,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="61"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="64"/>
       <c r="Y3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="43"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="46"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1417,39 +1417,39 @@
       <c r="AH20" s="18"/>
     </row>
     <row r="21" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F21" s="63" t="s">
+      <c r="F21" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="64" t="s">
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="64"/>
-      <c r="T21" s="64"/>
-      <c r="U21" s="64"/>
-      <c r="V21" s="64"/>
-      <c r="W21" s="64"/>
-      <c r="X21" s="64"/>
-      <c r="Y21" s="64"/>
-      <c r="Z21" s="64"/>
-      <c r="AA21" s="64"/>
-      <c r="AB21" s="64"/>
-      <c r="AC21" s="64"/>
-      <c r="AD21" s="64"/>
-      <c r="AE21" s="64"/>
-      <c r="AF21" s="64"/>
-      <c r="AG21" s="64"/>
-      <c r="AH21" s="65"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="33"/>
+      <c r="AE21" s="33"/>
+      <c r="AF21" s="33"/>
+      <c r="AG21" s="33"/>
+      <c r="AH21" s="34"/>
     </row>
     <row r="22" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F22" s="26"/>
@@ -1721,13 +1721,13 @@
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
-      <c r="K41" s="32" t="s">
+      <c r="K41" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="34"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="37"/>
       <c r="P41" s="27" t="s">
         <v>35</v>
       </c>
@@ -1756,11 +1756,11 @@
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="37"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="40"/>
       <c r="P42" s="27" t="s">
         <v>36</v>
       </c>
@@ -1789,11 +1789,11 @@
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="37"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="40"/>
       <c r="P43" s="27" t="s">
         <v>37</v>
       </c>
@@ -1822,11 +1822,11 @@
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
       <c r="J44" s="22"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="40"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="43"/>
       <c r="P44" s="30" t="s">
         <v>38</v>
       </c>
@@ -1857,13 +1857,13 @@
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
-      <c r="K45" s="32" t="s">
+      <c r="K45" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="34"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="37"/>
       <c r="P45" s="27" t="s">
         <v>32</v>
       </c>
@@ -1892,11 +1892,11 @@
       <c r="H46" s="20"/>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="37"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="40"/>
       <c r="P46" s="27" t="s">
         <v>33</v>
       </c>
@@ -1925,11 +1925,11 @@
       <c r="H47" s="20"/>
       <c r="I47" s="20"/>
       <c r="J47" s="20"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="37"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="40"/>
       <c r="P47" s="27" t="s">
         <v>34</v>
       </c>
@@ -1958,11 +1958,11 @@
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
       <c r="J48" s="22"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="39"/>
-      <c r="O48" s="40"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="43"/>
       <c r="P48" s="30"/>
       <c r="Q48" s="30"/>
       <c r="R48" s="30"/>
@@ -1990,10 +1990,10 @@
     <row r="51" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="52" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="58" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="59" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="60" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.6メッセージ管理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.6メッセージ管理方式.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09FE352-3C92-4453-AAC3-BEA524118AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD15B0F-8734-4A53-87A7-17AA270CD1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,11 +11,11 @@
     <sheet name="7.6.メッセージ管理方式" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.6.メッセージ管理方式'!$A$1:$AI$49</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.6.メッセージ管理方式'!$A$1:$AI$49</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.6.メッセージ管理方式'!$A$1:$AI$49</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.6.メッセージ管理方式'!$A$1:$AI$49</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.6.メッセージ管理方式'!$A$1:$AI$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.6.メッセージ管理方式'!$A$1:$AI$37</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.6.メッセージ管理方式'!$A$1:$AI$37</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.6.メッセージ管理方式'!$A$1:$AI$37</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.6.メッセージ管理方式'!$A$1:$AI$37</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.6.メッセージ管理方式'!$A$1:$AI$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -105,17 +105,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>場所</t>
-    <rPh sb="0" eb="2">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベース</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メッセージ管理の概要</t>
     <rPh sb="5" eb="7">
       <t>カンリ</t>
@@ -258,124 +247,31 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>プロパティファイル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>特徴</t>
-    <rPh sb="0" eb="2">
-      <t>トクチョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベーステーブルにメッセージIDとメッセージの組み合わせを登録して管理する。</t>
-    <rPh sb="25" eb="26">
+    <t>メッセージの定義場所としては、プロパティファイルを採用する。</t>
+    <rPh sb="6" eb="10">
+      <t>テイギバショ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、Javaのプロパティファイルでメッセージを定義し、リソースとしてアプリケーション内部に組み込んで使用する方式となる。</t>
+    <rPh sb="25" eb="27">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
       <t>ク</t>
     </rPh>
-    <rPh sb="27" eb="28">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本システムでの方針</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ホウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>以下の理由により、メッセージの定義場所にはプロパティファイルを採用する。</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>リユウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>サイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テキストファイルなので、変更履歴の管理がしやすい</t>
-    <rPh sb="12" eb="16">
-      <t>ヘンコウリレキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Javaのプロパティファイルでメッセージを定義し、リソースとしてアプリケーション内部に</t>
-    <rPh sb="21" eb="23">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>組み込んで使用する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Nablarchのメッセージ管理機能では、メッセージの定義場所として以下の選択肢が存在する。</t>
-    <rPh sb="14" eb="18">
-      <t>カンリキノウ</t>
-    </rPh>
-    <rPh sb="27" eb="31">
-      <t>テイギバショ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="37" eb="40">
-      <t>センタクシ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ソンザイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テキストファイルなので、メッセージの追加や削除・変更がデータベース管理よりも容易に行える</t>
-    <rPh sb="18" eb="20">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>オコナ</t>
+    <rPh sb="49" eb="50">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -599,7 +495,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,31 +574,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1142,7 +1023,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI463"/>
+  <dimension ref="A1:AI451"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1155,48 +1036,48 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="49"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="44"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="52"/>
+      <c r="R1" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="47"/>
       <c r="Y1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="46"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="41"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -1205,43 +1086,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="58"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="53"/>
       <c r="P2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="59" t="s">
+      <c r="R2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="61"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="56"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="46"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="41"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1250,39 +1131,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="64"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="59"/>
       <c r="Y3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="46"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="41"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1320,42 +1201,42 @@
         <v>7.6.1.1.</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O15" s="25"/>
     </row>
@@ -1375,632 +1256,403 @@
     </row>
     <row r="18" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F18" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="15"/>
       <c r="F19" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="18"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F21" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="33"/>
-      <c r="AG21" s="33"/>
-      <c r="AH21" s="34"/>
-    </row>
-    <row r="22" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="28"/>
-    </row>
-    <row r="23" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="30"/>
-      <c r="AH23" s="31"/>
-    </row>
-    <row r="24" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F24" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="27"/>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="27"/>
-      <c r="AH24" s="28"/>
-    </row>
-    <row r="25" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="30"/>
-      <c r="AD25" s="30"/>
-      <c r="AE25" s="30"/>
-      <c r="AF25" s="30"/>
-      <c r="AG25" s="30"/>
-      <c r="AH25" s="31"/>
-    </row>
-    <row r="26" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D27" s="15"/>
-      <c r="E27" s="15" t="str">
-        <f>$D$9&amp;"3."</f>
-        <v>7.6.1.3.</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D33" s="15" t="str">
+      <c r="D21" s="15" t="str">
         <f>$C$7&amp;"2."</f>
         <v>7.6.2.</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="22" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="15"/>
+      <c r="E22" s="24" t="str">
+        <f>$D$21&amp;"1."</f>
+        <v>7.6.2.1.</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="15"/>
+      <c r="F23" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="15"/>
+      <c r="F24" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="15" t="str">
+        <f>$D$21&amp;"2."</f>
+        <v>7.6.2.2.</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="18"/>
+    </row>
+    <row r="29" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F29" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="26"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="26"/>
+      <c r="AG29" s="26"/>
+      <c r="AH29" s="27"/>
+    </row>
+    <row r="30" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26"/>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="27"/>
+    </row>
+    <row r="31" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F31" s="19"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="26"/>
+      <c r="AE31" s="26"/>
+      <c r="AF31" s="26"/>
+      <c r="AG31" s="26"/>
+      <c r="AH31" s="27"/>
+    </row>
+    <row r="32" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28"/>
+      <c r="AG32" s="28"/>
+      <c r="AH32" s="29"/>
+    </row>
+    <row r="33" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="26"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="27"/>
+    </row>
     <row r="34" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D34" s="15"/>
-      <c r="E34" s="24" t="str">
-        <f>$D$33&amp;"1."</f>
-        <v>7.6.2.1.</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26"/>
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="26"/>
+      <c r="AG34" s="26"/>
+      <c r="AH34" s="27"/>
     </row>
     <row r="35" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D35" s="15"/>
-      <c r="F35" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="F35" s="23"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="26"/>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="27"/>
     </row>
     <row r="36" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D36" s="15"/>
-      <c r="F36" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="28"/>
+      <c r="AG36" s="28"/>
+      <c r="AH36" s="29"/>
     </row>
     <row r="37" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D37" s="15"/>
     </row>
-    <row r="38" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="15" t="str">
-        <f>$D$33&amp;"2."</f>
-        <v>7.6.2.2.</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E39" s="15"/>
-    </row>
-    <row r="40" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F40" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
-      <c r="Z40" s="17"/>
-      <c r="AA40" s="17"/>
-      <c r="AB40" s="17"/>
-      <c r="AC40" s="17"/>
-      <c r="AD40" s="17"/>
-      <c r="AE40" s="17"/>
-      <c r="AF40" s="17"/>
-      <c r="AG40" s="17"/>
-      <c r="AH40" s="18"/>
-    </row>
-    <row r="41" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F41" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="27"/>
-      <c r="Z41" s="27"/>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="27"/>
-      <c r="AC41" s="27"/>
-      <c r="AD41" s="27"/>
-      <c r="AE41" s="27"/>
-      <c r="AF41" s="27"/>
-      <c r="AG41" s="27"/>
-      <c r="AH41" s="28"/>
-    </row>
-    <row r="42" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F42" s="19"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="27"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="27"/>
-      <c r="W42" s="27"/>
-      <c r="X42" s="27"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-      <c r="AB42" s="27"/>
-      <c r="AC42" s="27"/>
-      <c r="AD42" s="27"/>
-      <c r="AE42" s="27"/>
-      <c r="AF42" s="27"/>
-      <c r="AG42" s="27"/>
-      <c r="AH42" s="28"/>
-    </row>
-    <row r="43" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F43" s="19"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="27"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="27"/>
-      <c r="AA43" s="27"/>
-      <c r="AB43" s="27"/>
-      <c r="AC43" s="27"/>
-      <c r="AD43" s="27"/>
-      <c r="AE43" s="27"/>
-      <c r="AF43" s="27"/>
-      <c r="AG43" s="27"/>
-      <c r="AH43" s="28"/>
-    </row>
-    <row r="44" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F44" s="21"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="42"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="30"/>
-      <c r="Z44" s="30"/>
-      <c r="AA44" s="30"/>
-      <c r="AB44" s="30"/>
-      <c r="AC44" s="30"/>
-      <c r="AD44" s="30"/>
-      <c r="AE44" s="30"/>
-      <c r="AF44" s="30"/>
-      <c r="AG44" s="30"/>
-      <c r="AH44" s="31"/>
-    </row>
-    <row r="45" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F45" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
-      <c r="S45" s="27"/>
-      <c r="T45" s="27"/>
-      <c r="U45" s="27"/>
-      <c r="V45" s="27"/>
-      <c r="W45" s="27"/>
-      <c r="X45" s="27"/>
-      <c r="Y45" s="27"/>
-      <c r="Z45" s="27"/>
-      <c r="AA45" s="27"/>
-      <c r="AB45" s="27"/>
-      <c r="AC45" s="27"/>
-      <c r="AD45" s="27"/>
-      <c r="AE45" s="27"/>
-      <c r="AF45" s="27"/>
-      <c r="AG45" s="27"/>
-      <c r="AH45" s="28"/>
-    </row>
-    <row r="46" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F46" s="23"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="27"/>
-      <c r="S46" s="27"/>
-      <c r="T46" s="27"/>
-      <c r="U46" s="27"/>
-      <c r="V46" s="27"/>
-      <c r="W46" s="27"/>
-      <c r="X46" s="27"/>
-      <c r="Y46" s="27"/>
-      <c r="Z46" s="27"/>
-      <c r="AA46" s="27"/>
-      <c r="AB46" s="27"/>
-      <c r="AC46" s="27"/>
-      <c r="AD46" s="27"/>
-      <c r="AE46" s="27"/>
-      <c r="AF46" s="27"/>
-      <c r="AG46" s="27"/>
-      <c r="AH46" s="28"/>
-    </row>
-    <row r="47" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F47" s="23"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="39"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="27"/>
-      <c r="U47" s="27"/>
-      <c r="V47" s="27"/>
-      <c r="W47" s="27"/>
-      <c r="X47" s="27"/>
-      <c r="Y47" s="27"/>
-      <c r="Z47" s="27"/>
-      <c r="AA47" s="27"/>
-      <c r="AB47" s="27"/>
-      <c r="AC47" s="27"/>
-      <c r="AD47" s="27"/>
-      <c r="AE47" s="27"/>
-      <c r="AF47" s="27"/>
-      <c r="AG47" s="27"/>
-      <c r="AH47" s="28"/>
-    </row>
-    <row r="48" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F48" s="21"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
-      <c r="N48" s="42"/>
-      <c r="O48" s="43"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="30"/>
-      <c r="W48" s="30"/>
-      <c r="X48" s="30"/>
-      <c r="Y48" s="30"/>
-      <c r="Z48" s="30"/>
-      <c r="AA48" s="30"/>
-      <c r="AB48" s="30"/>
-      <c r="AC48" s="30"/>
-      <c r="AD48" s="30"/>
-      <c r="AE48" s="30"/>
-      <c r="AF48" s="30"/>
-      <c r="AG48" s="30"/>
-      <c r="AH48" s="31"/>
-    </row>
-    <row r="49" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D49" s="15"/>
-    </row>
-    <row r="50" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="65" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="66" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2388,22 +2040,10 @@
     <row r="449" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="450" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="451" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="K41:O44"/>
-    <mergeCell ref="K45:O48"/>
+    <mergeCell ref="K29:O32"/>
+    <mergeCell ref="K33:O36"/>
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="R1:X1"/>
@@ -2418,14 +2058,11 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K41:O48" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K29:O36" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>OFFSET(#REF!,MATCH(0,INDEX(0/(#REF!&lt;&gt;""),),0)-1,,COUNTA(#REF!),)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="32" max="34" man="1"/>
-  </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.6メッセージ管理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.6メッセージ管理方式.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F620FA84-17E5-426D-8793-C572D817C99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD15B0F-8734-4A53-87A7-17AA270CD1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="メッセージ管理方式" sheetId="1" r:id="rId1"/>
+    <sheet name="7.6.メッセージ管理方式" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">メッセージ管理方式!$A$1:$AI$49</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">メッセージ管理方式!$A$1:$AI$49</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">メッセージ管理方式!$A$1:$AI$49</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">メッセージ管理方式!$A$1:$AI$49</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">メッセージ管理方式!$A$1:$AI$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.6.メッセージ管理方式'!$A$1:$AI$37</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.6.メッセージ管理方式'!$A$1:$AI$37</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.6.メッセージ管理方式'!$A$1:$AI$37</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.6.メッセージ管理方式'!$A$1:$AI$37</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.6.メッセージ管理方式'!$A$1:$AI$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -105,17 +105,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>場所</t>
-    <rPh sb="0" eb="2">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベース</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メッセージ管理の概要</t>
     <rPh sb="5" eb="7">
       <t>カンリ</t>
@@ -258,124 +247,31 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>プロパティファイル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>特徴</t>
-    <rPh sb="0" eb="2">
-      <t>トクチョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベーステーブルにメッセージIDとメッセージの組み合わせを登録して管理する。</t>
-    <rPh sb="25" eb="26">
+    <t>メッセージの定義場所としては、プロパティファイルを採用する。</t>
+    <rPh sb="6" eb="10">
+      <t>テイギバショ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、Javaのプロパティファイルでメッセージを定義し、リソースとしてアプリケーション内部に組み込んで使用する方式となる。</t>
+    <rPh sb="25" eb="27">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
       <t>ク</t>
     </rPh>
-    <rPh sb="27" eb="28">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本システムでの方針</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ホウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>以下の理由により、メッセージの定義場所にはプロパティファイルを採用する。</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>リユウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>サイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テキストファイルなので、変更履歴の管理がしやすい</t>
-    <rPh sb="12" eb="16">
-      <t>ヘンコウリレキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Javaのプロパティファイルでメッセージを定義し、リソースとしてアプリケーション内部に</t>
-    <rPh sb="21" eb="23">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>組み込んで使用する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Nablarchのメッセージ管理機能では、メッセージの定義場所として以下の選択肢が存在する。</t>
-    <rPh sb="14" eb="18">
-      <t>カンリキノウ</t>
-    </rPh>
-    <rPh sb="27" eb="31">
-      <t>テイギバショ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="37" eb="40">
-      <t>センタクシ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ソンザイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テキストファイルなので、メッセージの追加や削除・変更がデータベース管理よりも容易に行える</t>
-    <rPh sb="18" eb="20">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>オコナ</t>
+    <rPh sb="49" eb="50">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -599,7 +495,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,16 +574,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -788,15 +678,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1142,7 +1023,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI463"/>
+  <dimension ref="A1:AI451"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1155,48 +1036,48 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="46"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="44"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="49"/>
+      <c r="R1" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="47"/>
       <c r="Y1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="43"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="41"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -1205,43 +1086,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="53"/>
       <c r="P2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="56" t="s">
+      <c r="R2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="58"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="56"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="43"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="41"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1250,39 +1131,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="61"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="59"/>
       <c r="Y3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="43"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="41"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1320,42 +1201,42 @@
         <v>7.6.1.1.</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O15" s="25"/>
     </row>
@@ -1375,632 +1256,403 @@
     </row>
     <row r="18" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F18" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="15"/>
       <c r="F19" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="18"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F21" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="64"/>
-      <c r="T21" s="64"/>
-      <c r="U21" s="64"/>
-      <c r="V21" s="64"/>
-      <c r="W21" s="64"/>
-      <c r="X21" s="64"/>
-      <c r="Y21" s="64"/>
-      <c r="Z21" s="64"/>
-      <c r="AA21" s="64"/>
-      <c r="AB21" s="64"/>
-      <c r="AC21" s="64"/>
-      <c r="AD21" s="64"/>
-      <c r="AE21" s="64"/>
-      <c r="AF21" s="64"/>
-      <c r="AG21" s="64"/>
-      <c r="AH21" s="65"/>
-    </row>
-    <row r="22" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="28"/>
-    </row>
-    <row r="23" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="30"/>
-      <c r="AH23" s="31"/>
-    </row>
-    <row r="24" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F24" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="27"/>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="27"/>
-      <c r="AH24" s="28"/>
-    </row>
-    <row r="25" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="30"/>
-      <c r="AD25" s="30"/>
-      <c r="AE25" s="30"/>
-      <c r="AF25" s="30"/>
-      <c r="AG25" s="30"/>
-      <c r="AH25" s="31"/>
-    </row>
-    <row r="26" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D27" s="15"/>
-      <c r="E27" s="15" t="str">
-        <f>$D$9&amp;"3."</f>
-        <v>7.6.1.3.</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D33" s="15" t="str">
+      <c r="D21" s="15" t="str">
         <f>$C$7&amp;"2."</f>
         <v>7.6.2.</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="22" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="15"/>
+      <c r="E22" s="24" t="str">
+        <f>$D$21&amp;"1."</f>
+        <v>7.6.2.1.</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="15"/>
+      <c r="F23" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="15"/>
+      <c r="F24" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="15" t="str">
+        <f>$D$21&amp;"2."</f>
+        <v>7.6.2.2.</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="18"/>
+    </row>
+    <row r="29" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F29" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="26"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="26"/>
+      <c r="AG29" s="26"/>
+      <c r="AH29" s="27"/>
+    </row>
+    <row r="30" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26"/>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="27"/>
+    </row>
+    <row r="31" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F31" s="19"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="26"/>
+      <c r="AE31" s="26"/>
+      <c r="AF31" s="26"/>
+      <c r="AG31" s="26"/>
+      <c r="AH31" s="27"/>
+    </row>
+    <row r="32" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28"/>
+      <c r="AG32" s="28"/>
+      <c r="AH32" s="29"/>
+    </row>
+    <row r="33" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="26"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="27"/>
+    </row>
     <row r="34" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D34" s="15"/>
-      <c r="E34" s="24" t="str">
-        <f>$D$33&amp;"1."</f>
-        <v>7.6.2.1.</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26"/>
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="26"/>
+      <c r="AG34" s="26"/>
+      <c r="AH34" s="27"/>
     </row>
     <row r="35" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D35" s="15"/>
-      <c r="F35" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="F35" s="23"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="26"/>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="27"/>
     </row>
     <row r="36" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D36" s="15"/>
-      <c r="F36" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="28"/>
+      <c r="AG36" s="28"/>
+      <c r="AH36" s="29"/>
     </row>
     <row r="37" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D37" s="15"/>
     </row>
-    <row r="38" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="15" t="str">
-        <f>$D$33&amp;"2."</f>
-        <v>7.6.2.2.</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E39" s="15"/>
-    </row>
-    <row r="40" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F40" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
-      <c r="Z40" s="17"/>
-      <c r="AA40" s="17"/>
-      <c r="AB40" s="17"/>
-      <c r="AC40" s="17"/>
-      <c r="AD40" s="17"/>
-      <c r="AE40" s="17"/>
-      <c r="AF40" s="17"/>
-      <c r="AG40" s="17"/>
-      <c r="AH40" s="18"/>
-    </row>
-    <row r="41" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F41" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="27"/>
-      <c r="Z41" s="27"/>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="27"/>
-      <c r="AC41" s="27"/>
-      <c r="AD41" s="27"/>
-      <c r="AE41" s="27"/>
-      <c r="AF41" s="27"/>
-      <c r="AG41" s="27"/>
-      <c r="AH41" s="28"/>
-    </row>
-    <row r="42" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F42" s="19"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="27"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="27"/>
-      <c r="W42" s="27"/>
-      <c r="X42" s="27"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-      <c r="AB42" s="27"/>
-      <c r="AC42" s="27"/>
-      <c r="AD42" s="27"/>
-      <c r="AE42" s="27"/>
-      <c r="AF42" s="27"/>
-      <c r="AG42" s="27"/>
-      <c r="AH42" s="28"/>
-    </row>
-    <row r="43" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F43" s="19"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="27"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="27"/>
-      <c r="AA43" s="27"/>
-      <c r="AB43" s="27"/>
-      <c r="AC43" s="27"/>
-      <c r="AD43" s="27"/>
-      <c r="AE43" s="27"/>
-      <c r="AF43" s="27"/>
-      <c r="AG43" s="27"/>
-      <c r="AH43" s="28"/>
-    </row>
-    <row r="44" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F44" s="21"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="30"/>
-      <c r="Z44" s="30"/>
-      <c r="AA44" s="30"/>
-      <c r="AB44" s="30"/>
-      <c r="AC44" s="30"/>
-      <c r="AD44" s="30"/>
-      <c r="AE44" s="30"/>
-      <c r="AF44" s="30"/>
-      <c r="AG44" s="30"/>
-      <c r="AH44" s="31"/>
-    </row>
-    <row r="45" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F45" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
-      <c r="S45" s="27"/>
-      <c r="T45" s="27"/>
-      <c r="U45" s="27"/>
-      <c r="V45" s="27"/>
-      <c r="W45" s="27"/>
-      <c r="X45" s="27"/>
-      <c r="Y45" s="27"/>
-      <c r="Z45" s="27"/>
-      <c r="AA45" s="27"/>
-      <c r="AB45" s="27"/>
-      <c r="AC45" s="27"/>
-      <c r="AD45" s="27"/>
-      <c r="AE45" s="27"/>
-      <c r="AF45" s="27"/>
-      <c r="AG45" s="27"/>
-      <c r="AH45" s="28"/>
-    </row>
-    <row r="46" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F46" s="23"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="27"/>
-      <c r="S46" s="27"/>
-      <c r="T46" s="27"/>
-      <c r="U46" s="27"/>
-      <c r="V46" s="27"/>
-      <c r="W46" s="27"/>
-      <c r="X46" s="27"/>
-      <c r="Y46" s="27"/>
-      <c r="Z46" s="27"/>
-      <c r="AA46" s="27"/>
-      <c r="AB46" s="27"/>
-      <c r="AC46" s="27"/>
-      <c r="AD46" s="27"/>
-      <c r="AE46" s="27"/>
-      <c r="AF46" s="27"/>
-      <c r="AG46" s="27"/>
-      <c r="AH46" s="28"/>
-    </row>
-    <row r="47" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F47" s="23"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="27"/>
-      <c r="U47" s="27"/>
-      <c r="V47" s="27"/>
-      <c r="W47" s="27"/>
-      <c r="X47" s="27"/>
-      <c r="Y47" s="27"/>
-      <c r="Z47" s="27"/>
-      <c r="AA47" s="27"/>
-      <c r="AB47" s="27"/>
-      <c r="AC47" s="27"/>
-      <c r="AD47" s="27"/>
-      <c r="AE47" s="27"/>
-      <c r="AF47" s="27"/>
-      <c r="AG47" s="27"/>
-      <c r="AH47" s="28"/>
-    </row>
-    <row r="48" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F48" s="21"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="39"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="30"/>
-      <c r="W48" s="30"/>
-      <c r="X48" s="30"/>
-      <c r="Y48" s="30"/>
-      <c r="Z48" s="30"/>
-      <c r="AA48" s="30"/>
-      <c r="AB48" s="30"/>
-      <c r="AC48" s="30"/>
-      <c r="AD48" s="30"/>
-      <c r="AE48" s="30"/>
-      <c r="AF48" s="30"/>
-      <c r="AG48" s="30"/>
-      <c r="AH48" s="31"/>
-    </row>
-    <row r="49" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D49" s="15"/>
-    </row>
-    <row r="50" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="65" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="66" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2388,22 +2040,10 @@
     <row r="449" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="450" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="451" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="K41:O44"/>
-    <mergeCell ref="K45:O48"/>
+    <mergeCell ref="K29:O32"/>
+    <mergeCell ref="K33:O36"/>
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="R1:X1"/>
@@ -2418,14 +2058,11 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K41:O48" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K29:O36" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>OFFSET(#REF!,MATCH(0,INDEX(0/(#REF!&lt;&gt;""),),0)-1,,COUNTA(#REF!),)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="32" max="34" man="1"/>
-  </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.6メッセージ管理方式.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.6メッセージ管理方式.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD15B0F-8734-4A53-87A7-17AA270CD1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="19395" windowHeight="6810"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="メッセージ管理方式" sheetId="1" r:id="rId1"/>
+    <sheet name="7.6.メッセージ管理方式" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">メッセージ管理方式!$A$1:$AI$45</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">メッセージ管理方式!$A$1:$AI$45</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">メッセージ管理方式!$A$1:$AI$45</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">メッセージ管理方式!$A$1:$AI$45</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">メッセージ管理方式!$A$1:$AI$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.6.メッセージ管理方式'!$A$1:$AI$37</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.6.メッセージ管理方式'!$A$1:$AI$37</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.6.メッセージ管理方式'!$A$1:$AI$37</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.6.メッセージ管理方式'!$A$1:$AI$37</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.6.メッセージ管理方式'!$A$1:$AI$37</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -93,17 +105,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>場所</t>
-    <rPh sb="0" eb="2">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベース</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メッセージ管理の概要</t>
     <rPh sb="5" eb="7">
       <t>カンリ</t>
@@ -118,16 +119,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>メッセージ管理の詳細</t>
-    <rPh sb="5" eb="7">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メッセージのロードの概要</t>
     <rPh sb="10" eb="12">
       <t>ガイヨウ</t>
@@ -151,10 +142,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メッセージの入れ替えは、SEメンテナンスにより行うため、メンテナンス用の画面は提供しない。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>対象</t>
     <rPh sb="0" eb="2">
       <t>タイショウ</t>
@@ -214,17 +201,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>同期設定がされているならば、その1つを更新すればよいため。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本システムでは、複数のDBサーバを使用しているが、データベースにメッセージを保存する場合は、</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>バッチ機能では、特定のメッセージのみを繰り返し使用する。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -261,16 +237,41 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>本システムでの選択基準を以下に示す。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>要件定義</t>
     <rPh sb="0" eb="2">
       <t>ヨウケン</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メッセージの定義場所としては、プロパティファイルを採用する。</t>
+    <rPh sb="6" eb="10">
+      <t>テイギバショ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、Javaのプロパティファイルでメッセージを定義し、リソースとしてアプリケーション内部に組み込んで使用する方式となる。</t>
+    <rPh sb="25" eb="27">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -278,7 +279,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -494,7 +495,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -573,16 +574,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -687,9 +682,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -697,12 +692,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -744,7 +742,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -777,9 +775,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -812,6 +827,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -987,11 +1019,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI459"/>
+  <dimension ref="A1:AI451"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1004,48 +1036,48 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="46"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="44"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="49"/>
+      <c r="R1" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="47"/>
       <c r="Y1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="43"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="41"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -1054,43 +1086,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="53"/>
       <c r="P2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="56" t="s">
+      <c r="R2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="58"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="56"/>
       <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="43"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="41"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1099,39 +1131,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="61"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="59"/>
       <c r="Y3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="43"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="41"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1169,42 +1201,42 @@
         <v>7.6.1.1.</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="O15" s="25"/>
     </row>
@@ -1224,540 +1256,393 @@
     </row>
     <row r="18" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F18" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="15"/>
       <c r="F19" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="18"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F21" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="27"/>
-      <c r="AH21" s="28"/>
-    </row>
-    <row r="22" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="28"/>
-    </row>
-    <row r="23" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="30"/>
-      <c r="AH23" s="31"/>
-    </row>
-    <row r="24" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="15"/>
-      <c r="E25" s="15" t="str">
-        <f>$D$9&amp;"3."</f>
-        <v>7.6.1.3.</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="15" t="str">
+      <c r="D21" s="15" t="str">
         <f>$C$7&amp;"2."</f>
         <v>7.6.2.</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="22" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="15"/>
+      <c r="E22" s="24" t="str">
+        <f>$D$21&amp;"1."</f>
+        <v>7.6.2.1.</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="15"/>
+      <c r="F23" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="15"/>
+      <c r="F24" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="15" t="str">
+        <f>$D$21&amp;"2."</f>
+        <v>7.6.2.2.</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="18"/>
+    </row>
+    <row r="29" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F29" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="26"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="26"/>
+      <c r="AG29" s="26"/>
+      <c r="AH29" s="27"/>
+    </row>
     <row r="30" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D30" s="15"/>
-      <c r="E30" s="24" t="str">
-        <f>$D$29&amp;"1."</f>
-        <v>7.6.2.1.</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26"/>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="27"/>
     </row>
     <row r="31" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D31" s="15"/>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="19"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="26"/>
+      <c r="AE31" s="26"/>
+      <c r="AF31" s="26"/>
+      <c r="AG31" s="26"/>
+      <c r="AH31" s="27"/>
+    </row>
+    <row r="32" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28"/>
+      <c r="AG32" s="28"/>
+      <c r="AH32" s="29"/>
+    </row>
+    <row r="33" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="30" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D32" s="15"/>
-      <c r="F32" s="4" t="s">
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="26" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D33" s="15"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="26"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="27"/>
     </row>
     <row r="34" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E34" s="15" t="str">
-        <f>$D$29&amp;"2."</f>
-        <v>7.6.2.2.</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E35" s="15"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26"/>
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="26"/>
+      <c r="AG34" s="26"/>
+      <c r="AH34" s="27"/>
+    </row>
+    <row r="35" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F35" s="23"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="26"/>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="27"/>
     </row>
     <row r="36" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F36" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="17"/>
-      <c r="AA36" s="17"/>
-      <c r="AB36" s="17"/>
-      <c r="AC36" s="17"/>
-      <c r="AD36" s="17"/>
-      <c r="AE36" s="17"/>
-      <c r="AF36" s="17"/>
-      <c r="AG36" s="17"/>
-      <c r="AH36" s="18"/>
-    </row>
-    <row r="37" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F37" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="27"/>
-      <c r="W37" s="27"/>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="27"/>
-      <c r="AC37" s="27"/>
-      <c r="AD37" s="27"/>
-      <c r="AE37" s="27"/>
-      <c r="AF37" s="27"/>
-      <c r="AG37" s="27"/>
-      <c r="AH37" s="28"/>
-    </row>
-    <row r="38" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F38" s="19"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="27"/>
-      <c r="W38" s="27"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="27"/>
-      <c r="AD38" s="27"/>
-      <c r="AE38" s="27"/>
-      <c r="AF38" s="27"/>
-      <c r="AG38" s="27"/>
-      <c r="AH38" s="28"/>
-    </row>
-    <row r="39" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F39" s="19"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="27"/>
-      <c r="AD39" s="27"/>
-      <c r="AE39" s="27"/>
-      <c r="AF39" s="27"/>
-      <c r="AG39" s="27"/>
-      <c r="AH39" s="28"/>
-    </row>
-    <row r="40" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F40" s="21"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="30"/>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="30"/>
-      <c r="Z40" s="30"/>
-      <c r="AA40" s="30"/>
-      <c r="AB40" s="30"/>
-      <c r="AC40" s="30"/>
-      <c r="AD40" s="30"/>
-      <c r="AE40" s="30"/>
-      <c r="AF40" s="30"/>
-      <c r="AG40" s="30"/>
-      <c r="AH40" s="31"/>
-    </row>
-    <row r="41" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F41" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="27"/>
-      <c r="Z41" s="27"/>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="27"/>
-      <c r="AC41" s="27"/>
-      <c r="AD41" s="27"/>
-      <c r="AE41" s="27"/>
-      <c r="AF41" s="27"/>
-      <c r="AG41" s="27"/>
-      <c r="AH41" s="28"/>
-    </row>
-    <row r="42" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F42" s="23"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="27"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="27"/>
-      <c r="W42" s="27"/>
-      <c r="X42" s="27"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-      <c r="AB42" s="27"/>
-      <c r="AC42" s="27"/>
-      <c r="AD42" s="27"/>
-      <c r="AE42" s="27"/>
-      <c r="AF42" s="27"/>
-      <c r="AG42" s="27"/>
-      <c r="AH42" s="28"/>
-    </row>
-    <row r="43" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F43" s="23"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="27"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="27"/>
-      <c r="AA43" s="27"/>
-      <c r="AB43" s="27"/>
-      <c r="AC43" s="27"/>
-      <c r="AD43" s="27"/>
-      <c r="AE43" s="27"/>
-      <c r="AF43" s="27"/>
-      <c r="AG43" s="27"/>
-      <c r="AH43" s="28"/>
-    </row>
-    <row r="44" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F44" s="21"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="30"/>
-      <c r="Z44" s="30"/>
-      <c r="AA44" s="30"/>
-      <c r="AB44" s="30"/>
-      <c r="AC44" s="30"/>
-      <c r="AD44" s="30"/>
-      <c r="AE44" s="30"/>
-      <c r="AF44" s="30"/>
-      <c r="AG44" s="30"/>
-      <c r="AH44" s="31"/>
-    </row>
-    <row r="45" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D45" s="15"/>
-    </row>
-    <row r="46" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="28"/>
+      <c r="AG36" s="28"/>
+      <c r="AH36" s="29"/>
+    </row>
+    <row r="37" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="55" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="57" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2155,18 +2040,10 @@
     <row r="449" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="450" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="451" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="K37:O40"/>
-    <mergeCell ref="K41:O44"/>
+    <mergeCell ref="K29:O32"/>
+    <mergeCell ref="K33:O36"/>
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="R1:X1"/>
@@ -2181,7 +2058,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K37:O44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K29:O36" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>OFFSET(#REF!,MATCH(0,INDEX(0/(#REF!&lt;&gt;""),),0)-1,,COUNTA(#REF!),)</formula1>
     </dataValidation>
   </dataValidations>
